--- a/documents/Excel Sheets/Supporting.xlsx
+++ b/documents/Excel Sheets/Supporting.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{ECAEF7B6-DA67-4DEA-BEA0-2EC13FF42575}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{42FB66B8-3CB9-41BA-8FA0-275CF6F35EC4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A926A23B-AB0D-4653-9B94-95DA787AF6DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Aging Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Aging Report" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -503,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,49 +527,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1021,6 +1022,567 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72538C83-343B-4B03-B647-5F60D3FCEC3B}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1170</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43728</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5">
+        <v>43595</v>
+      </c>
+      <c r="L2" s="2">
+        <v>486349</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43728</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5">
+        <v>43595</v>
+      </c>
+      <c r="L3" s="2">
+        <v>486349</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1172</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43728</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5">
+        <v>43595</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1173</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43728</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="5">
+        <v>43595</v>
+      </c>
+      <c r="L5" s="2">
+        <v>486349</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1174</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43728</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="5">
+        <v>43595</v>
+      </c>
+      <c r="L6" s="2">
+        <v>486349</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5444</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43733</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2">
+        <v>76780</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5">
+        <v>43748</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>73000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>690</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5486</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43728</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="5">
+        <v>43595</v>
+      </c>
+      <c r="L8" s="2">
+        <v>965217</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5487</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43728</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="5">
+        <v>43595</v>
+      </c>
+      <c r="L9" s="2">
+        <v>965217</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>5488</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43728</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="5">
+        <v>43595</v>
+      </c>
+      <c r="L10" s="2">
+        <v>965217</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>5489</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43728</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="5">
+        <v>43595</v>
+      </c>
+      <c r="L11" s="2">
+        <v>965217</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>5673</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43733</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2">
+        <v>59470</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5">
+        <v>43748</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>57000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>200</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>8763</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>38320</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5">
+        <v>43748</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>36000</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1080</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>9511</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43733</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>56620</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="5">
+        <v>43748</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>54000</v>
+      </c>
+      <c r="N14" s="2">
+        <v>120</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A4EDBD-A149-422F-B450-29A9DB995E31}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -1261,6 +1823,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010032F5BFA72ECF3B4C93C706218857990E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d3b50624b4e387d77ca71f244163e4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6aa5cd12-4664-4072-a81c-5fd2e4b15966" xmlns:ns4="7be6dd44-53c4-4f66-a09c-89a638adedfe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f065d46464f9ba466905c1795496136" ns3:_="" ns4:_="">
     <xsd:import namespace="6aa5cd12-4664-4072-a81c-5fd2e4b15966"/>
@@ -1463,36 +2040,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD0809B-1A1C-408B-AA53-71C8A618BDC2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BA9B29-AD8B-497E-8966-7304785DA244}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6aa5cd12-4664-4072-a81c-5fd2e4b15966"/>
-    <ds:schemaRef ds:uri="7be6dd44-53c4-4f66-a09c-89a638adedfe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1515,9 +2066,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BA9B29-AD8B-497E-8966-7304785DA244}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD0809B-1A1C-408B-AA53-71C8A618BDC2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6aa5cd12-4664-4072-a81c-5fd2e4b15966"/>
+    <ds:schemaRef ds:uri="7be6dd44-53c4-4f66-a09c-89a638adedfe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>